--- a/src/Grid_Independence_Test.xlsx
+++ b/src/Grid_Independence_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grobl\Documents\Project\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{294EA3FF-6FE6-4FE3-A213-45E6F0862D61}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F3BC9E-7F4F-45C8-933A-96B9D6DF2F46}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{95A8A740-73A1-4569-8FB2-8A4DD4344269}"/>
   </bookViews>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A306C5-1E37-4934-A5A7-68418D08D64D}">
-  <dimension ref="C4:I12"/>
+  <dimension ref="C4:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>

--- a/src/Grid_Independence_Test.xlsx
+++ b/src/Grid_Independence_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grobl\Documents\Project\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F3BC9E-7F4F-45C8-933A-96B9D6DF2F46}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F5C723-E637-4B95-9BC9-FB1FCE1695E6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{95A8A740-73A1-4569-8FB2-8A4DD4344269}"/>
   </bookViews>
@@ -66,12 +66,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -80,10 +95,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -403,7 +418,7 @@
   <dimension ref="C4:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,119 +431,119 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>20</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>456</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>50</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
         <v>2572</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <v>9093</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>365</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>150</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
         <v>18750</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
         <v>825</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>200</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
         <v>31115</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <v>1470</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>250</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
         <v>45890</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
         <v>2302</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>300</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
         <v>62848</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
         <v>3318</v>
       </c>
     </row>

--- a/src/Grid_Independence_Test.xlsx
+++ b/src/Grid_Independence_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grobl\Documents\Project\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F5C723-E637-4B95-9BC9-FB1FCE1695E6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3010AA9-B2FC-4055-990D-2416D35B80B9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{95A8A740-73A1-4569-8FB2-8A4DD4344269}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Grid Indepence Test for GS and SOR using different number of nodes</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Iterations to Solver (SOR)</t>
+  </si>
+  <si>
+    <t>Omega</t>
+  </si>
+  <si>
+    <t>Iterations to Solve</t>
+  </si>
+  <si>
+    <t>Omega Optimization for 200 Nodes</t>
   </si>
 </sst>
 </file>
@@ -66,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,11 +98,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -101,6 +119,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,6 +137,1089 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relaxation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Factor Optimization</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iterations to Solve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA0F-4E43-8B1F-916AEE5D7890}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="596552384"/>
+        <c:axId val="596553040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="596552384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Omega</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596553040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="596553040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596552384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA523C8-4B85-4A18-BA43-9B37B65E79DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,14 +1519,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A306C5-1E37-4934-A5A7-68418D08D64D}">
-  <dimension ref="C4:G12"/>
+  <dimension ref="C4:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -431,126 +1536,215 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>456</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>50</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>2572</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>100</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>9093</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>365</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>150</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>18750</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>825</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>200</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
         <v>31115</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>1470</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>250</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <v>45890</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
         <v>2302</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>300</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <v>62848</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
         <v>3318</v>
       </c>
     </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="D25" s="3">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>621</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>